--- a/ARCHIVE/deployment/Omaha_Cal_Info_CP05MOAS-GL388_00004.xlsx
+++ b/ARCHIVE/deployment/Omaha_Cal_Info_CP05MOAS-GL388_00004.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27510"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leila/Documents/OOI_assmgt/asset-management/deployment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leila/Documents/OOI_assmgt/asset-management/ARCHIVE/deployment/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="1480" windowWidth="23040" windowHeight="11020" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="42440" yWindow="-2700" windowWidth="23040" windowHeight="11020" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -191,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -300,6 +300,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue ,Helvetica,Arial"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -536,9 +541,6 @@
     <xf numFmtId="15" fontId="12" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="6" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -566,6 +568,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1004,22 +1007,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="9" width="19.83203125" customWidth="1"/>
-    <col min="10" max="11" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" customWidth="1"/>
+    <col min="2" max="2" width="23.3984375" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" customWidth="1"/>
+    <col min="5" max="7" width="17.59765625" customWidth="1"/>
+    <col min="8" max="9" width="19.796875" customWidth="1"/>
+    <col min="10" max="11" width="9.59765625" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="56" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>30</v>
       </c>
@@ -1076,14 +1079,20 @@
       <c r="D2" s="19">
         <v>4</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="32"/>
+      <c r="E2" s="28">
+        <v>42591</v>
+      </c>
+      <c r="F2" s="38">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="G2" s="29">
+        <v>42641</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="31"/>
       <c r="M2" s="22" t="e">
         <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="N",1,-1))</f>
         <v>#VALUE!</v>
@@ -1111,22 +1120,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="30.5" customWidth="1"/>
+    <col min="1" max="2" width="30.3984375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.3984375" customWidth="1"/>
+    <col min="6" max="6" width="21.796875" customWidth="1"/>
+    <col min="7" max="7" width="29.3984375" customWidth="1"/>
+    <col min="8" max="8" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1168,11 +1177,11 @@
       <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="34"/>
+      <c r="H2" s="33"/>
       <c r="I2" s="11"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
@@ -1201,11 +1210,11 @@
       <c r="E3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="37"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="34"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="11"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
@@ -1234,11 +1243,11 @@
       <c r="E4" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="37"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="34"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="11"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
@@ -1267,11 +1276,11 @@
       <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="37"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="34"/>
+      <c r="H5" s="33"/>
       <c r="I5" s="11"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
@@ -1321,11 +1330,11 @@
       <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="37"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="35"/>
+      <c r="H7" s="34"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -1349,11 +1358,11 @@
       <c r="E8" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="37"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="35"/>
+      <c r="H8" s="34"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -1377,11 +1386,11 @@
       <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="37"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="35"/>
+      <c r="H9" s="34"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -1405,11 +1414,11 @@
       <c r="E10" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="37"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="35"/>
+      <c r="H10" s="34"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -1449,7 +1458,7 @@
       <c r="E12" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="37"/>
+      <c r="F12" s="36"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
       <c r="I12" s="8"/>
@@ -1491,7 +1500,7 @@
       <c r="E14" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="37"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
       <c r="I14" s="8"/>
@@ -1533,11 +1542,11 @@
       <c r="E16" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="37"/>
+      <c r="F16" s="36"/>
       <c r="G16" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="36"/>
+      <c r="H16" s="35"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -1577,7 +1586,7 @@
       <c r="E18" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="38"/>
+      <c r="F18" s="37"/>
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
       <c r="I18" s="8"/>
